--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H2">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I2">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J2">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>2432.152285600117</v>
+        <v>2464.119358070528</v>
       </c>
       <c r="R2">
-        <v>2432.152285600117</v>
+        <v>9856.477432282112</v>
       </c>
       <c r="S2">
-        <v>0.02714915088867905</v>
+        <v>0.02398874832641265</v>
       </c>
       <c r="T2">
-        <v>0.02714915088867905</v>
+        <v>0.01504476744135964</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H3">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I3">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J3">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>1645.916007631067</v>
+        <v>1778.188924776448</v>
       </c>
       <c r="R3">
-        <v>1645.916007631067</v>
+        <v>10669.13354865869</v>
       </c>
       <c r="S3">
-        <v>0.01837270729544071</v>
+        <v>0.01731106346515525</v>
       </c>
       <c r="T3">
-        <v>0.01837270729544071</v>
+        <v>0.01628519256937145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H4">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I4">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J4">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>1241.725675978711</v>
+        <v>1265.647625498112</v>
       </c>
       <c r="R4">
-        <v>1241.725675978711</v>
+        <v>7593.885752988673</v>
       </c>
       <c r="S4">
-        <v>0.01386089100550497</v>
+        <v>0.01232136026956491</v>
       </c>
       <c r="T4">
-        <v>0.01386089100550497</v>
+        <v>0.01159118416441363</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H5">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I5">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J5">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>1167.531683720483</v>
+        <v>1192.338853805227</v>
       </c>
       <c r="R5">
-        <v>1167.531683720483</v>
+        <v>7154.033122831361</v>
       </c>
       <c r="S5">
-        <v>0.01303269291002466</v>
+        <v>0.01160768312218999</v>
       </c>
       <c r="T5">
-        <v>0.01303269291002466</v>
+        <v>0.01091980023697588</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H6">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I6">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J6">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>1715.426969217915</v>
+        <v>1822.641369094144</v>
       </c>
       <c r="R6">
-        <v>1715.426969217915</v>
+        <v>10935.84821456486</v>
       </c>
       <c r="S6">
-        <v>0.01914863057775807</v>
+        <v>0.01774381786714415</v>
       </c>
       <c r="T6">
-        <v>0.01914863057775807</v>
+        <v>0.01669230151364965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H7">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I7">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J7">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>2062.56360942567</v>
+        <v>2094.764737932032</v>
       </c>
       <c r="R7">
-        <v>2062.56360942567</v>
+        <v>8379.058951728128</v>
       </c>
       <c r="S7">
-        <v>0.02302357914894262</v>
+        <v>0.02039299920140354</v>
       </c>
       <c r="T7">
-        <v>0.02302357914894262</v>
+        <v>0.01278965981226874</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H8">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I8">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J8">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>6285.824961681218</v>
+        <v>6651.08142086168</v>
       </c>
       <c r="R8">
-        <v>6285.824961681218</v>
+        <v>39906.48852517008</v>
       </c>
       <c r="S8">
-        <v>0.07016616983849788</v>
+        <v>0.06474975239367575</v>
       </c>
       <c r="T8">
-        <v>0.07016616983849788</v>
+        <v>0.06091261745256807</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H9">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I9">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J9">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>4253.820777116867</v>
+        <v>4799.637355888233</v>
       </c>
       <c r="R9">
-        <v>4253.820777116867</v>
+        <v>43196.73620299411</v>
       </c>
       <c r="S9">
-        <v>0.04748371342333444</v>
+        <v>0.04672553389564989</v>
       </c>
       <c r="T9">
-        <v>0.04748371342333444</v>
+        <v>0.06593479819385495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H10">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I10">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J10">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>3209.2029334839</v>
+        <v>3416.200347494392</v>
       </c>
       <c r="R10">
-        <v>3209.2029334839</v>
+        <v>30745.80312744953</v>
       </c>
       <c r="S10">
-        <v>0.03582305893812394</v>
+        <v>0.03325746786584874</v>
       </c>
       <c r="T10">
-        <v>0.03582305893812394</v>
+        <v>0.04692989569836681</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H11">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I11">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J11">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>3017.450775814843</v>
+        <v>3218.327380101071</v>
       </c>
       <c r="R11">
-        <v>3017.450775814843</v>
+        <v>28964.94642090964</v>
       </c>
       <c r="S11">
-        <v>0.03368260568911923</v>
+        <v>0.0313311306533869</v>
       </c>
       <c r="T11">
-        <v>0.03368260568911923</v>
+        <v>0.04421162487794909</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H12">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I12">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J12">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>4433.46978184408</v>
+        <v>4919.622138908169</v>
       </c>
       <c r="R12">
-        <v>4433.46978184408</v>
+        <v>44276.59925017352</v>
       </c>
       <c r="S12">
-        <v>0.04948906397856773</v>
+        <v>0.04789361236288707</v>
       </c>
       <c r="T12">
-        <v>0.04948906397856773</v>
+        <v>0.06758308365130673</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H13">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I13">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J13">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>5330.634063476902</v>
+        <v>5654.129855318944</v>
       </c>
       <c r="R13">
-        <v>5330.634063476902</v>
+        <v>33924.77913191367</v>
       </c>
       <c r="S13">
-        <v>0.0595037528605893</v>
+        <v>0.05504420784645286</v>
       </c>
       <c r="T13">
-        <v>0.0595037528605893</v>
+        <v>0.05178223316044855</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H14">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I14">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J14">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>390.9391721078188</v>
+        <v>824.0453604979512</v>
       </c>
       <c r="R14">
-        <v>390.9391721078188</v>
+        <v>4944.272162987707</v>
       </c>
       <c r="S14">
-        <v>0.004363898853986272</v>
+        <v>0.008022264302169223</v>
       </c>
       <c r="T14">
-        <v>0.004363898853986272</v>
+        <v>0.007546856914145589</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H15">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I15">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J15">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>264.5611646901987</v>
+        <v>594.6580179858853</v>
       </c>
       <c r="R15">
-        <v>264.5611646901987</v>
+        <v>5351.922161872968</v>
       </c>
       <c r="S15">
-        <v>0.002953191303844123</v>
+        <v>0.005789127660162019</v>
       </c>
       <c r="T15">
-        <v>0.002953191303844123</v>
+        <v>0.008169087267011042</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H16">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I16">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J16">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>199.5924394316289</v>
+        <v>423.255087218513</v>
       </c>
       <c r="R16">
-        <v>199.5924394316289</v>
+        <v>3809.295784966617</v>
       </c>
       <c r="S16">
-        <v>0.002227971203304724</v>
+        <v>0.004120482123523879</v>
       </c>
       <c r="T16">
-        <v>0.002227971203304724</v>
+        <v>0.005814447361536243</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H17">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I17">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J17">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>187.6666492249319</v>
+        <v>398.7393294897039</v>
       </c>
       <c r="R17">
-        <v>187.6666492249319</v>
+        <v>3588.653965407335</v>
       </c>
       <c r="S17">
-        <v>0.002094848339368407</v>
+        <v>0.003881815786091179</v>
       </c>
       <c r="T17">
-        <v>0.002094848339368407</v>
+        <v>0.005477663263371951</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H18">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I18">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J18">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>275.7342141476983</v>
+        <v>609.5237063636893</v>
       </c>
       <c r="R18">
-        <v>275.7342141476983</v>
+        <v>5485.713357273204</v>
       </c>
       <c r="S18">
-        <v>0.00307791162148389</v>
+        <v>0.0059338484327277</v>
       </c>
       <c r="T18">
-        <v>0.00307791162148389</v>
+        <v>0.0083733039797593</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H19">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I19">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J19">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>331.5322460121479</v>
+        <v>700.5266031346972</v>
       </c>
       <c r="R19">
-        <v>331.5322460121479</v>
+        <v>4203.159618808183</v>
       </c>
       <c r="S19">
-        <v>0.003700762910586242</v>
+        <v>0.006819781811102522</v>
       </c>
       <c r="T19">
-        <v>0.003700762910586242</v>
+        <v>0.006415634735465704</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H20">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I20">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J20">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>2006.404648005791</v>
+        <v>2060.790828719802</v>
       </c>
       <c r="R20">
-        <v>2006.404648005791</v>
+        <v>12364.74497231881</v>
       </c>
       <c r="S20">
-        <v>0.02239669894642948</v>
+        <v>0.02006225566209919</v>
       </c>
       <c r="T20">
-        <v>0.02239669894642948</v>
+        <v>0.01887334637128938</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H21">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I21">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J21">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>1357.798830069256</v>
+        <v>1487.133898732816</v>
       </c>
       <c r="R21">
-        <v>1357.798830069256</v>
+        <v>13384.20508859534</v>
       </c>
       <c r="S21">
-        <v>0.01515656956691197</v>
+        <v>0.01447757825023234</v>
       </c>
       <c r="T21">
-        <v>0.01515656956691197</v>
+        <v>0.02042943377376119</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H22">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I22">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J22">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>1024.361912937159</v>
+        <v>1058.485665669954</v>
       </c>
       <c r="R22">
-        <v>1024.361912937159</v>
+        <v>9526.370991029587</v>
       </c>
       <c r="S22">
-        <v>0.01143454556838524</v>
+        <v>0.01030459265607747</v>
       </c>
       <c r="T22">
-        <v>0.01143454556838524</v>
+        <v>0.01454089831837325</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H23">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I23">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J23">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>963.155560110332</v>
+        <v>997.1761175449368</v>
       </c>
       <c r="R23">
-        <v>963.155560110332</v>
+        <v>8974.585057904431</v>
       </c>
       <c r="S23">
-        <v>0.01075132333839595</v>
+        <v>0.009707730610754814</v>
       </c>
       <c r="T23">
-        <v>0.01075132333839595</v>
+        <v>0.01369866121101759</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H24">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I24">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J24">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>1415.141915549939</v>
+        <v>1524.310340395048</v>
       </c>
       <c r="R24">
-        <v>1415.141915549939</v>
+        <v>13718.79306355543</v>
       </c>
       <c r="S24">
-        <v>0.01579666767645668</v>
+        <v>0.0148394991530433</v>
       </c>
       <c r="T24">
-        <v>0.01579666767645668</v>
+        <v>0.02094014343718143</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H25">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I25">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J25">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>1701.512375380787</v>
+        <v>1751.892393571469</v>
       </c>
       <c r="R25">
-        <v>1701.512375380787</v>
+        <v>10511.35436142882</v>
       </c>
       <c r="S25">
-        <v>0.01899330748805044</v>
+        <v>0.01705506090307651</v>
       </c>
       <c r="T25">
-        <v>0.01899330748805044</v>
+        <v>0.01604436097458834</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H26">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I26">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J26">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>1620.393309099928</v>
+        <v>1932.636373390517</v>
       </c>
       <c r="R26">
-        <v>1620.393309099928</v>
+        <v>11595.8182403431</v>
       </c>
       <c r="S26">
-        <v>0.0180878075391176</v>
+        <v>0.01881464362344781</v>
       </c>
       <c r="T26">
-        <v>0.0180878075391176</v>
+        <v>0.01769966906704979</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H27">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I27">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J27">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>1096.57248927066</v>
+        <v>1394.653462514933</v>
       </c>
       <c r="R27">
-        <v>1096.57248927066</v>
+        <v>12551.8811626344</v>
       </c>
       <c r="S27">
-        <v>0.01224060357891519</v>
+        <v>0.01357726069772353</v>
       </c>
       <c r="T27">
-        <v>0.01224060357891519</v>
+        <v>0.01915898801989083</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H28">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I28">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J28">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>827.2853591472463</v>
+        <v>992.6615887829001</v>
       </c>
       <c r="R28">
-        <v>827.2853591472463</v>
+        <v>8933.954299046101</v>
       </c>
       <c r="S28">
-        <v>0.009234658198198209</v>
+        <v>0.00966378067223818</v>
       </c>
       <c r="T28">
-        <v>0.009234658198198209</v>
+        <v>0.01363664307906434</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H29">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I29">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J29">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>777.8544705707195</v>
+        <v>935.1646991950556</v>
       </c>
       <c r="R29">
-        <v>777.8544705707195</v>
+        <v>8416.482292755501</v>
       </c>
       <c r="S29">
-        <v>0.008682880803143164</v>
+        <v>0.009104035703165599</v>
       </c>
       <c r="T29">
-        <v>0.008682880803143164</v>
+        <v>0.01284678219361682</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H30">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I30">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J30">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>1142.88336286657</v>
+        <v>1429.518011788133</v>
       </c>
       <c r="R30">
-        <v>1142.88336286657</v>
+        <v>12865.6621060932</v>
       </c>
       <c r="S30">
-        <v>0.01275755348476028</v>
+        <v>0.01391667481550535</v>
       </c>
       <c r="T30">
-        <v>0.01275755348476028</v>
+        <v>0.01963793816757813</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H31">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I31">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J31">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>1374.159131438472</v>
+        <v>1642.947413632317</v>
       </c>
       <c r="R31">
-        <v>1374.159131438472</v>
+        <v>9857.6844817939</v>
       </c>
       <c r="S31">
-        <v>0.01533919311934611</v>
+        <v>0.01599445736671502</v>
       </c>
       <c r="T31">
-        <v>0.01533919311934611</v>
+        <v>0.01504660986217578</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H32">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I32">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J32">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>8489.541982592407</v>
+        <v>9906.182483498074</v>
       </c>
       <c r="R32">
-        <v>8489.541982592407</v>
+        <v>39624.7299339923</v>
       </c>
       <c r="S32">
-        <v>0.0947653885103278</v>
+        <v>0.09643888300046832</v>
       </c>
       <c r="T32">
-        <v>0.0947653885103278</v>
+        <v>0.06048254570452233</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H33">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I33">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J33">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>5745.147262913707</v>
+        <v>7148.624485773204</v>
       </c>
       <c r="R33">
-        <v>5745.147262913707</v>
+        <v>42891.74691463922</v>
       </c>
       <c r="S33">
-        <v>0.06413079922749973</v>
+        <v>0.06959344445210765</v>
       </c>
       <c r="T33">
-        <v>0.06413079922749973</v>
+        <v>0.06546926748606104</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H34">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I34">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J34">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>4334.301893634559</v>
+        <v>5088.120547783738</v>
       </c>
       <c r="R34">
-        <v>4334.301893634559</v>
+        <v>30528.72328670243</v>
       </c>
       <c r="S34">
-        <v>0.04838209219219884</v>
+        <v>0.04953398173488131</v>
       </c>
       <c r="T34">
-        <v>0.04838209219219884</v>
+        <v>0.04659854854694424</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H35">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I35">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J35">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>4075.32427292322</v>
+        <v>4793.406711113317</v>
       </c>
       <c r="R35">
-        <v>4075.32427292322</v>
+        <v>28760.4402666799</v>
       </c>
       <c r="S35">
-        <v>0.04549122777424634</v>
+        <v>0.046664877187229</v>
       </c>
       <c r="T35">
-        <v>0.04549122777424634</v>
+        <v>0.04389946999788655</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H36">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I36">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J36">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>5987.778544735894</v>
+        <v>7327.330936743761</v>
       </c>
       <c r="R36">
-        <v>5987.778544735894</v>
+        <v>43963.98562046257</v>
       </c>
       <c r="S36">
-        <v>0.06683919595064275</v>
+        <v>0.07133319137735233</v>
       </c>
       <c r="T36">
-        <v>0.06683919595064275</v>
+        <v>0.06710591527240935</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H37">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I37">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J37">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>7199.475319723258</v>
+        <v>8421.313556093492</v>
       </c>
       <c r="R37">
-        <v>7199.475319723258</v>
+        <v>33685.25422437397</v>
       </c>
       <c r="S37">
-        <v>0.08036488624981773</v>
+        <v>0.08198335474833432</v>
       </c>
       <c r="T37">
-        <v>0.08036488624981773</v>
+        <v>0.05141662622276659</v>
       </c>
     </row>
   </sheetData>
